--- a/25 FP.xlsx
+++ b/25 FP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://traidnp-my.sharepoint.com/personal/giftaid_traid_org_uk/Documents/Shops/Spreadsheets/fp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2221758B-52D8-44E4-A5FC-BCEB4C7A9A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{2221758B-52D8-44E4-A5FC-BCEB4C7A9A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9534EBA-803D-478C-A0B4-B4A0ECF0C93F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5445" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="11" xr2:uid="{91B49153-07C2-455A-8EEE-2A270F846F5D}"/>
+    <workbookView xWindow="-14505" yWindow="5565" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="5" xr2:uid="{91B49153-07C2-455A-8EEE-2A270F846F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Brixton 25 FP" sheetId="1" r:id="rId1"/>
@@ -2157,7 +2157,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2200,21 +2200,23 @@
       <c r="B2" s="2">
         <v>45661</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="str">
+      <c r="C2" s="2">
+        <v>45663</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2:D52" si="0">IF(ISBLANK(C2), "", C2-B2)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f>IF(WalthamstowFP25[[#This Row],[Days late]] = "", "", IF(WalthamstowFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>IF(WalthamstowFP25[[#This Row],[Days late]] = "", "", IF(WalthamstowFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2224,21 +2226,23 @@
       <c r="B3" s="2">
         <v>45668</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C3" s="2">
+        <v>45668</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f>IF(WalthamstowFP25[[#This Row],[Days late]] = "", "", IF(WalthamstowFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <f>IF(WalthamstowFP25[[#This Row],[Days late]] = "", "", IF(WalthamstowFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3454,7 +3458,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3497,21 +3501,23 @@
       <c r="B2" s="2">
         <v>45661</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="str">
+      <c r="C2" s="2">
+        <v>45661</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2:D52" si="0">IF(ISBLANK(C2), "", C2-B2)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f>IF(WestbourneFP25[[#This Row],[Days late]] = "", "", IF(WestbourneFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>IF(WestbourneFP25[[#This Row],[Days late]] = "", "", IF(WestbourneFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -4750,8 +4756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E26CB4-D2E9-472B-9048-30EF9894CCBD}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4794,21 +4800,23 @@
       <c r="B2" s="2">
         <v>45661</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="str">
+      <c r="C2" s="2">
+        <v>45669</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2:D52" si="0">IF(ISBLANK(C2), "", C2-B2)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f>IF(WGreenFP25[[#This Row],[Days late]] = "", "", IF(WGreenFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>IF(WGreenFP25[[#This Row],[Days late]] = "", "", IF(WGreenFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -4818,21 +4826,23 @@
       <c r="B3" s="2">
         <v>45668</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C3" s="2">
+        <v>45669</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f>IF(WGreenFP25[[#This Row],[Days late]] = "", "", IF(WGreenFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <f>IF(WGreenFP25[[#This Row],[Days late]] = "", "", IF(WGreenFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -6047,8 +6057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEA3077-6C11-4796-A95E-FDFA2FC42438}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6091,21 +6101,23 @@
       <c r="B2" s="2">
         <v>45661</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="str">
+      <c r="C2" s="2">
+        <v>45661</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2:D52" si="0">IF(ISBLANK(C2), "", C2-B2)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f>IF(CamdenFP25[[#This Row],[Days late]] = "", "", IF(CamdenFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>IF(CamdenFP25[[#This Row],[Days late]] = "", "", IF(CamdenFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -6115,21 +6127,23 @@
       <c r="B3" s="2">
         <v>45668</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C3" s="2">
+        <v>45668</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f>IF(CamdenFP25[[#This Row],[Days late]] = "", "", IF(CamdenFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <f>IF(CamdenFP25[[#This Row],[Days late]] = "", "", IF(CamdenFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -7345,7 +7359,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7388,21 +7402,23 @@
       <c r="B2" s="2">
         <v>45661</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="str">
+      <c r="C2" s="2">
+        <v>45662</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2:D52" si="0">IF(ISBLANK(C2), "", C2-B2)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f>IF(ClaphamFP25[[#This Row],[Days late]] = "", "", IF(ClaphamFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>IF(ClaphamFP25[[#This Row],[Days late]] = "", "", IF(ClaphamFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -8641,8 +8657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C868B-A535-428F-AC72-4738BAE0471E}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8686,21 +8702,23 @@
       <c r="B2" s="2">
         <v>45661</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="str">
+      <c r="C2" s="2">
+        <v>45664</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2:D52" si="0">IF(ISBLANK(C2), "", C2-B2)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f>IF(DalstonFP25[[#This Row],[Days late]] = "", "", IF(DalstonFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>IF(DalstonFP25[[#This Row],[Days late]] = "", "", IF(DalstonFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -9940,7 +9958,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G53"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9984,21 +10002,23 @@
       <c r="B2" s="2">
         <v>45661</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="str">
+      <c r="C2" s="2">
+        <v>45661</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2:D52" si="0">IF(ISBLANK(C2), "", C2-B2)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f>IF(HSmithFP25[[#This Row],[Days late]] = "", "", IF(HSmithFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>IF(HSmithFP25[[#This Row],[Days late]] = "", "", IF(HSmithFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -10008,21 +10028,23 @@
       <c r="B3" s="2">
         <v>45668</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C3" s="2">
+        <v>45668</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f>IF(HSmithFP25[[#This Row],[Days late]] = "", "", IF(HSmithFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <f>IF(HSmithFP25[[#This Row],[Days late]] = "", "", IF(HSmithFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -11237,8 +11259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE909434-C1D7-40C2-BE4F-189F00C0263D}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11306,21 +11328,23 @@
       <c r="B3" s="2">
         <v>45668</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C3" s="2">
+        <v>45670</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f>IF(KilburnFP25[[#This Row],[Days late]] = "", "", IF(KilburnFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <f>IF(KilburnFP25[[#This Row],[Days late]] = "", "", IF(KilburnFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -12536,7 +12560,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12603,21 +12627,23 @@
       <c r="B3" s="2">
         <v>45668</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C3" s="2">
+        <v>45668</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f>IF(LewishamFP25[[#This Row],[Days late]] = "", "", IF(LewishamFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <f>IF(LewishamFP25[[#This Row],[Days late]] = "", "", IF(LewishamFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -13833,7 +13859,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13877,21 +13903,23 @@
       <c r="B2" s="2">
         <v>45661</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="str">
+      <c r="C2" s="2">
+        <v>45668</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2:D52" si="0">IF(ISBLANK(C2), "", C2-B2)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f>IF(PeckhamFP25[[#This Row],[Days late]] = "", "", IF(PeckhamFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>IF(PeckhamFP25[[#This Row],[Days late]] = "", "", IF(PeckhamFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -13901,21 +13929,23 @@
       <c r="B3" s="2">
         <v>45668</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C3" s="2">
+        <v>45668</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f>IF(PeckhamFP25[[#This Row],[Days late]] = "", "", IF(PeckhamFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <f>IF(PeckhamFP25[[#This Row],[Days late]] = "", "", IF(PeckhamFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -15131,7 +15161,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15199,21 +15229,23 @@
       <c r="B3" s="2">
         <v>45668</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C3" s="2">
+        <v>45668</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f>IF(SBushFP25[[#This Row],[Days late]] = "", "", IF(SBushFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <f>IF(SBushFP25[[#This Row],[Days late]] = "", "", IF(SBushFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">

--- a/25 FP.xlsx
+++ b/25 FP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://traidnp-my.sharepoint.com/personal/giftaid_traid_org_uk/Documents/Shops/Spreadsheets/fp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{2221758B-52D8-44E4-A5FC-BCEB4C7A9A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9534EBA-803D-478C-A0B4-B4A0ECF0C93F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{2221758B-52D8-44E4-A5FC-BCEB4C7A9A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEBCA605-6992-4631-BA17-89BC61B29B30}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="5565" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="5" xr2:uid="{91B49153-07C2-455A-8EEE-2A270F846F5D}"/>
+    <workbookView xWindow="-28920" yWindow="5445" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{91B49153-07C2-455A-8EEE-2A270F846F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Brixton 25 FP" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,21 +903,23 @@
       <c r="B2" s="2">
         <v>45661</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="str">
+      <c r="C2" s="2">
+        <v>45664</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2:D52" si="0">IF(ISBLANK(C2), "", C2-B2)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f>IF(BrixtonFP25[[#This Row],[Days late]] = "", "", IF(BrixtonFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>IF(BrixtonFP25[[#This Row],[Days late]] = "", "", IF(BrixtonFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -7359,7 +7361,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7428,21 +7430,23 @@
       <c r="B3" s="2">
         <v>45668</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C3" s="2">
+        <v>45668</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f>IF(ClaphamFP25[[#This Row],[Days late]] = "", "", IF(ClaphamFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <f>IF(ClaphamFP25[[#This Row],[Days late]] = "", "", IF(ClaphamFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -8657,7 +8661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C868B-A535-428F-AC72-4738BAE0471E}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -11259,7 +11263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE909434-C1D7-40C2-BE4F-189F00C0263D}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -12560,7 +12564,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12603,21 +12607,23 @@
       <c r="B2" s="2">
         <v>45661</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="str">
+      <c r="C2" s="2">
+        <v>45664</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2:D52" si="0">IF(ISBLANK(C2), "", C2-B2)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f>IF(LewishamFP25[[#This Row],[Days late]] = "", "", IF(LewishamFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>IF(LewishamFP25[[#This Row],[Days late]] = "", "", IF(LewishamFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -15205,21 +15211,23 @@
       <c r="B2" s="2">
         <v>45661</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="str">
+      <c r="C2" s="2">
+        <v>45664</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2:D52" si="0">IF(ISBLANK(C2), "", C2-B2)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2">
         <f>IF(SBushFP25[[#This Row],[Days late]] = "", "", IF(SBushFP25[[#This Row],[Days late]] = 0, 1, 1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>IF(SBushFP25[[#This Row],[Days late]] = "", "", IF(SBushFP25[[#This Row],[Days late]] = 0, 1, 0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
